--- a/График_задолженностей.xlsx
+++ b/График_задолженностей.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shuti\OneDrive\Рабочий стол\Диплом\файлы\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shuti\TelegramBot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55BDDB28-37BC-4BE3-8827-767E5CD7D02E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C31C1D87-6BCA-4A7B-A68E-ED3FC1EF1CED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="34">
   <si>
     <t>Преподаватель</t>
   </si>
@@ -124,6 +124,9 @@
   </si>
   <si>
     <t>Эпп В.В.</t>
+  </si>
+  <si>
+    <t>7а-204</t>
   </si>
 </sst>
 </file>
@@ -572,7 +575,7 @@
   <dimension ref="B1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -584,7 +587,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:5" ht="52.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -598,7 +601,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:5" ht="52.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="3" t="s">
         <v>4</v>
       </c>
@@ -612,7 +615,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="2:5" ht="52.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="3" t="s">
         <v>8</v>
       </c>
@@ -626,7 +629,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="2:5" ht="35.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="3" t="s">
         <v>12</v>
       </c>
@@ -662,7 +665,7 @@
       <c r="D7" s="11"/>
       <c r="E7" s="11"/>
     </row>
-    <row r="8" spans="2:5" ht="52.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="3" t="s">
         <v>16</v>
       </c>
@@ -676,7 +679,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="2:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="8" t="s">
         <v>18</v>
       </c>
@@ -690,7 +693,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="2:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10" s="9"/>
       <c r="C10" s="6" t="s">
         <v>21</v>
@@ -702,7 +705,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="2:5" ht="52.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="3" t="s">
         <v>22</v>
       </c>
@@ -716,7 +719,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="2:5" ht="52.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B12" s="3" t="s">
         <v>24</v>
       </c>
@@ -730,7 +733,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="2:5" ht="35.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="3" t="s">
         <v>25</v>
       </c>
@@ -744,7 +747,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="2:5" ht="52.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" s="3" t="s">
         <v>27</v>
       </c>
@@ -758,7 +761,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="2:5" ht="35.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B15" s="3" t="s">
         <v>28</v>
       </c>
@@ -772,7 +775,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="2:5" ht="35.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B16" s="3" t="s">
         <v>30</v>
       </c>
@@ -786,7 +789,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="2:5" ht="52.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B17" s="3" t="s">
         <v>31</v>
       </c>
@@ -800,7 +803,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="2:5" ht="35.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B18" s="3" t="s">
         <v>32</v>
       </c>
@@ -811,7 +814,7 @@
         <v>13</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/График_задолженностей.xlsx
+++ b/График_задолженностей.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shuti\TelegramBot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C31C1D87-6BCA-4A7B-A68E-ED3FC1EF1CED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46912E4A-A21C-42BC-A7FF-E6A1B695283D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3036" yWindow="3036" windowWidth="17280" windowHeight="9960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
